--- a/exported_publications.xlsx
+++ b/exported_publications.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Қарастырылуда</t>
+          <t>Қабылданды</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -562,7 +562,11 @@
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>xxx</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>3_.docx</t>
